--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3923687.867888504</v>
+        <v>3917947.753180287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095102</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7566060.441965486</v>
+        <v>7566060.441965487</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174325</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>81.61867816238548</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
@@ -718,16 +718,16 @@
         <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.8928783711286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810083</v>
+        <v>59.24433418100838</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,10 +794,10 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>87.54111329085855</v>
       </c>
       <c r="V3" t="n">
-        <v>183.5647370112729</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627971</v>
       </c>
       <c r="H4" t="n">
-        <v>86.81458153838912</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731837</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>45.24972634440809</v>
       </c>
       <c r="T5" t="n">
-        <v>2.184769653485477</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.92375604299515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>234.0533095201968</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>227.4204436050915</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.0513489387729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.6398334758191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>74.4932268285572</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>142.9392783001811</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>268.7733598392817</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>54.3236916715851</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534541</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.4122745526616</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.096858911427119</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>208.2711770227061</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>98.63037656083677</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>177.5202205379151</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>111.2527235042575</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>147.5468990697472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>39.5590750921377</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>59.90320919298808</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>102.0680166652309</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.03050787632558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>117.1146325952916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6360985471537</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>830.773902191333</v>
+        <v>233.1089316612286</v>
       </c>
       <c r="C2" t="n">
-        <v>830.773902191333</v>
+        <v>233.1089316612286</v>
       </c>
       <c r="D2" t="n">
-        <v>472.5082035845826</v>
+        <v>233.1089316612286</v>
       </c>
       <c r="E2" t="n">
-        <v>472.5082035845826</v>
+        <v>233.1089316612286</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>226.1634309120251</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369982</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369982</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060713</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927199</v>
+        <v>769.5640925927188</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811681</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633672</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054132</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684991</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684991</v>
+        <v>2209.771058549505</v>
       </c>
       <c r="T2" t="n">
-        <v>2145.54774421134</v>
+        <v>1989.867492075854</v>
       </c>
       <c r="U2" t="n">
-        <v>1891.762769367842</v>
+        <v>1736.082517232356</v>
       </c>
       <c r="V2" t="n">
-        <v>1560.699882024272</v>
+        <v>1736.082517232356</v>
       </c>
       <c r="W2" t="n">
-        <v>1560.699882024272</v>
+        <v>1383.313861962242</v>
       </c>
       <c r="X2" t="n">
-        <v>1560.699882024272</v>
+        <v>1009.848103701162</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.373742255455</v>
+        <v>619.7087717253503</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.3878565569553</v>
+        <v>783.40913517655</v>
       </c>
       <c r="C3" t="n">
-        <v>518.9348272758283</v>
+        <v>608.956105895423</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9348272758283</v>
+        <v>460.0216962341717</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>300.7842412287162</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>154.2496832556012</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>154.2496832556012</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422604</v>
+        <v>130.1591986422594</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852934</v>
+        <v>501.770269185292</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874824</v>
+        <v>987.4020823874807</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1501.594138030029</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>1905.5637351199</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2212.781883695909</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684988</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2305.60854888599</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2144.554785926781</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087515</v>
+        <v>1945.051103087512</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549725</v>
+        <v>1856.625736127049</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.452349275712</v>
+        <v>1621.473627895306</v>
       </c>
       <c r="W3" t="n">
-        <v>1277.21499254751</v>
+        <v>1367.236271167105</v>
       </c>
       <c r="X3" t="n">
-        <v>1069.363492341977</v>
+        <v>1159.384770961572</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.6031935770234</v>
+        <v>951.6244721966179</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.1171621294589</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="C4" t="n">
-        <v>285.1171621294589</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="D4" t="n">
-        <v>135.0005227171232</v>
+        <v>464.7224358422832</v>
       </c>
       <c r="E4" t="n">
-        <v>135.0005227171232</v>
+        <v>316.8093422598901</v>
       </c>
       <c r="F4" t="n">
-        <v>135.0005227171232</v>
+        <v>169.9193947619797</v>
       </c>
       <c r="G4" t="n">
-        <v>135.0005227171232</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181612</v>
+        <v>88.80529410181593</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365665</v>
+        <v>197.4326649365661</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950602</v>
+        <v>322.3541198950597</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896741</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885936</v>
+        <v>551.3848716885929</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="U4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="V4" t="n">
-        <v>574.5343321664195</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="W4" t="n">
-        <v>285.1171621294589</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="X4" t="n">
-        <v>285.1171621294589</v>
+        <v>614.8390752546189</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.1171621294589</v>
+        <v>614.8390752546189</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="T5" t="n">
-        <v>2639.913563514892</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="U5" t="n">
-        <v>2386.151778152983</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V5" t="n">
-        <v>2055.088890809413</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W5" t="n">
-        <v>2055.088890809413</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X5" t="n">
-        <v>2055.088890809413</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>2055.088890809413</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>137.7043515607636</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1515.02307474038</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2405.70291718488</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W8" t="n">
-        <v>1905.162406716192</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X8" t="n">
-        <v>1905.162406716192</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y8" t="n">
-        <v>1515.02307474038</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,55 +5023,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427196</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196075</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5111,19 +5111,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.8079542252655</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8079542252655</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D13" t="n">
-        <v>389.6913148129298</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689059</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689059</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.724257814702</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.307087777741</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X13" t="n">
-        <v>868.317536879724</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.5249577361939</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,34 +5275,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2707.641918722173</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780955</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660292</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946817</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5378,19 +5378,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>651.8626051473628</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C16" t="n">
-        <v>651.8626051473628</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>651.8626051473628</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>651.8626051473628</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>504.9726576494525</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>337.2698210241714</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431758</v>
+        <v>1181.572266996683</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.061905225871</v>
+        <v>926.8877787907957</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.64473518891</v>
+        <v>637.470608753835</v>
       </c>
       <c r="X16" t="n">
-        <v>872.655184290893</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.8626051473628</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="17">
@@ -5500,52 +5500,52 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551628</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464785</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294614</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353396</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>909.2731541783409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2731541783409</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.2731541783409</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690178</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143016</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544772</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551639</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001597</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>845.0839474760719</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1296.118160724481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554309</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780956</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660293</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862921</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604877</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261306</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991192</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730112</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.8161967543</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089887</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3529.429247383709</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3360.493064455802</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3210.376425043466</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>3210.376425043466</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>3063.486477545556</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>3063.486477545556</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159226</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607722</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207271</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913136</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833549</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267208</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419723</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4713.998919841277</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>4522.313035668103</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>4522.313035668103</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4522.313035668103</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>4267.628547462216</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>3978.211377425256</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>3750.221826527239</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>3529.429247383709</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6071,49 +6071,49 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399.0634049978493</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C25" t="n">
-        <v>399.0634049978493</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>248.9467655855135</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>248.9467655855135</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
         <v>241.7782212305366</v>
@@ -6189,10 +6189,10 @@
         <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>619.8559841413794</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.0634049978493</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,22 +6229,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422545</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667298</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3773.43467184513</v>
+        <v>681.9433364046623</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.43467184513</v>
+        <v>513.0071534767554</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432794</v>
+        <v>362.8905140644197</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.404938850401</v>
+        <v>362.8905140644197</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352491</v>
+        <v>362.8905140644197</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>195.1876774391386</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4317.222026925373</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U28" t="n">
-        <v>4028.119160051016</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V28" t="n">
-        <v>3773.43467184513</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W28" t="n">
-        <v>3773.43467184513</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X28" t="n">
-        <v>3773.43467184513</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y28" t="n">
-        <v>3773.43467184513</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6478,10 +6478,10 @@
         <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3698.155230093472</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="C31" t="n">
-        <v>3529.219047165565</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="D31" t="n">
-        <v>3379.102407753229</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E31" t="n">
-        <v>3231.189314170836</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170836</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545555</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816073</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816073</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>4215.56195102845</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>3926.144780991489</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>3698.155230093472</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y31" t="n">
-        <v>3698.155230093472</v>
+        <v>619.8559841413794</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.11783460013</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
@@ -6803,28 +6803,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3792.254215360701</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C34" t="n">
-        <v>3623.318032432794</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432794</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850401</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>4456.576719294845</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4456.576719294845</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4201.892231088958</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>4201.892231088958</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>3973.902680190941</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>3973.902680190941</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K35" t="n">
-        <v>685.1208104866391</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1549.639626139994</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969822</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196469</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7040,28 +7040,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625238</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>156.0693265625238</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.410141987875</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.725653781988</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.308483745027</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X37" t="n">
-        <v>930.2094770124706</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y37" t="n">
-        <v>709.4168978689405</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,52 +7174,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>444.6760255082879</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K38" t="n">
-        <v>1099.399357643587</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1963.918173296942</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.8526275526848</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>490.9164446247779</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258583</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052696</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>908.9588510157357</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>908.9588510157357</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.1662718722056</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7493,7 +7493,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7502,10 +7502,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>931.4530568143261</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>813.1554481322135</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>592.3628689886833</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M44" t="n">
-        <v>1923.729615463052</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2903.481887689699</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7675,22 +7675,22 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
         <v>2760.816196754298</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.9179079604247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7836,22 +7836,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1764.657581931529</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1509.973093725642</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.555923688682</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>992.5663727906644</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>992.5663727906644</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902262995</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535369</v>
+        <v>115.1204337631319</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>161.8544041422892</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>374.1693948021961</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>60.6691768043425</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>388.431077898091</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>139.3563597571384</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>229.1155640189954</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561043</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>201.9664098701135</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>426.9983436221929</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>205.0727796301219</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0304280899009</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>29.61882225792283</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K35" t="n">
-        <v>67.53663776704337</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8544041422911</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>297.8289162490807</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>288.7672650676791</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.19214670611818</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>177.6444164952708</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.815736614139723</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>17.4384783663312</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>112.9231294270427</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.51987811738573</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>138.3241891115041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>17.43847836633105</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>46.12463835348402</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.02872873825413</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>37.36274951395484</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>104.5907442540808</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>179.9898741840315</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>36.44921121685004</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>123.6416387238062</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.8014723056117</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>108.5950227937456</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>12.61072255147417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639774.5794201377</v>
+        <v>639774.5794201378</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639774.5794201378</v>
+        <v>639774.5794201377</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>639774.5794201378</v>
+        <v>639774.5794201377</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="F2" t="n">
+        <v>774309.4844296166</v>
+      </c>
+      <c r="G2" t="n">
         <v>774309.4844296172</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>774309.4844296168</v>
-      </c>
-      <c r="G2" t="n">
-        <v>774309.4844296165</v>
-      </c>
-      <c r="H2" t="n">
-        <v>774309.4844296167</v>
       </c>
       <c r="I2" t="n">
         <v>774309.4844296166</v>
       </c>
       <c r="J2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296166</v>
       </c>
       <c r="K2" t="n">
         <v>774309.4844296168</v>
       </c>
       <c r="L2" t="n">
-        <v>774309.4844296168</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="M2" t="n">
-        <v>774309.4844296166</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="N2" t="n">
-        <v>774309.4844296172</v>
+        <v>774309.4844296169</v>
       </c>
       <c r="O2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="P2" t="n">
         <v>774309.4844296167</v>
-      </c>
-      <c r="P2" t="n">
-        <v>774309.4844296172</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106473</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446895</v>
+        <v>91792.63957446979</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832158</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220078</v>
+        <v>21342.09858220096</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659809</v>
+        <v>226943.9547659811</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499383</v>
       </c>
       <c r="N4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.72367499384</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499383</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499383</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26508,7 +26508,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918.980309646518</v>
+        <v>3918.98030964713</v>
       </c>
       <c r="C6" t="n">
-        <v>424799.5020520663</v>
+        <v>424799.5020520657</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265353</v>
+        <v>516592.1416265354</v>
       </c>
       <c r="E6" t="n">
-        <v>-74542.17149249706</v>
+        <v>-75214.12639475515</v>
       </c>
       <c r="F6" t="n">
-        <v>652835.2425009097</v>
+        <v>652163.2875986513</v>
       </c>
       <c r="G6" t="n">
-        <v>652835.242500909</v>
+        <v>652163.2875986518</v>
       </c>
       <c r="H6" t="n">
-        <v>652835.2425009094</v>
+        <v>652163.2875986515</v>
       </c>
       <c r="I6" t="n">
-        <v>652835.2425009095</v>
+        <v>652163.2875986513</v>
       </c>
       <c r="J6" t="n">
-        <v>498108.7068176935</v>
+        <v>497436.7519154354</v>
       </c>
       <c r="K6" t="n">
-        <v>631493.1439187085</v>
+        <v>630821.1890164505</v>
       </c>
       <c r="L6" t="n">
-        <v>652835.2425009094</v>
+        <v>652163.2875986515</v>
       </c>
       <c r="M6" t="n">
-        <v>523192.9276619643</v>
+        <v>522520.9727597068</v>
       </c>
       <c r="N6" t="n">
-        <v>652835.2425009097</v>
+        <v>652163.2875986516</v>
       </c>
       <c r="O6" t="n">
-        <v>652835.2425009093</v>
+        <v>652163.287598652</v>
       </c>
       <c r="P6" t="n">
-        <v>652835.2425009097</v>
+        <v>652163.2875986514</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26807,7 +26807,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353678</v>
+        <v>71.38374637353746</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.62590885137678e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.362827671247</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330789</v>
+        <v>82.92444508330857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517431</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>99.33635975407141</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.34506028492495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356733</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>138.3569159715535</v>
       </c>
       <c r="V3" t="n">
-        <v>49.23585013815233</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479622</v>
       </c>
       <c r="H4" t="n">
-        <v>70.50078769608336</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848775</v>
+        <v>54.30080173848783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731846</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>129.1659864645634</v>
       </c>
       <c r="T5" t="n">
-        <v>214.2635507041723</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.6608973090997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>17.17085798809245</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8205251123215</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.53330441332193</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28098,19 +28098,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.590777614538347e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.337034766251842e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672559</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452646</v>
+        <v>47.48116877452636</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015737</v>
+        <v>156.6638408015733</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787775</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589798</v>
+        <v>216.2577725589793</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.757049409524</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.510350181155</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579886</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709654</v>
+        <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940659</v>
+        <v>77.36434648940643</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978846</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216639</v>
+        <v>5.391318755216628</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380486</v>
+        <v>0.09852781277380467</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540505</v>
+        <v>0.6589628421540492</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014121</v>
+        <v>6.364193765014107</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478478</v>
+        <v>22.68797504784775</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403686</v>
+        <v>62.25753764403674</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.07875219665</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247343</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302323</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382926</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723816</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338372</v>
+        <v>84.11602876338355</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163476</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422104</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945492</v>
+        <v>2.656082683945487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627665</v>
+        <v>0.04335281856276641</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654176</v>
+        <v>0.5524523108654165</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296708</v>
+        <v>4.91180327296707</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818494</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509123</v>
+        <v>64.1849139350911</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448219</v>
+        <v>82.13459174448202</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502177</v>
+        <v>86.59941087502159</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361438</v>
+        <v>84.5402704436142</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395924</v>
+        <v>78.08662299395908</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230466</v>
+        <v>66.81659585230453</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437592</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400323</v>
+        <v>24.84026481400317</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263683</v>
+        <v>9.627737090263663</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.36047805551587</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084093</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302161</v>
+        <v>92.5810225130214</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277575</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592406</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.425072824539</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249177</v>
+        <v>427.6909102249172</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.2123200222136</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742018</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564206</v>
+        <v>123.0079925564203</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.510946317779</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935294</v>
+        <v>83.6870428571309</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202353</v>
+        <v>375.364717720235</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527159</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.0500980705776</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>310.3213621979885</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>154.2115424132111</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920838</v>
+        <v>41.91542210920825</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368622</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719815</v>
+        <v>64.09515511719802</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>714.1562395552007</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>913.0905106324228</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>459.4311630237141</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>844.0211922904232</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>390.1506645608579</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>566.3068505743959</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690155</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>740.88752570034</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427824</v>
@@ -36606,16 +36606,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>979.3001790351042</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36846,13 +36846,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1257805183409</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>866.6205424822328</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37089,10 +37089,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014755</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K35" t="n">
-        <v>404.7279243224438</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>352.6414051110036</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908542</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>836.7500320793075</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265651</v>
@@ -38028,16 +38028,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>796.8202659558981</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3917947.753180287</v>
+        <v>3921353.244304736</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095102</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>333.0217496486516</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174325</v>
+        <v>72.50477145174324</v>
       </c>
       <c r="S2" t="n">
-        <v>81.61867816238548</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
@@ -718,16 +718,16 @@
         <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100838</v>
+        <v>49.51733968949789</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>87.54111329085855</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>99.55849178710066</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3842648627971</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>137.5418012681497</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>45.24972634440809</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.52687838733143</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>234.0533095201968</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>194.9437214015086</v>
       </c>
       <c r="V13" t="n">
-        <v>74.4932268285572</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>268.7733598392817</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>160.8695265197237</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>208.2711770227061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>98.63037656083677</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.2527235042575</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>63.13355668550189</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>143.9764333632482</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>59.90320919298808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>5.485278461794869</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.1089316612286</v>
+        <v>1134.694083873607</v>
       </c>
       <c r="C2" t="n">
-        <v>233.1089316612286</v>
+        <v>1134.694083873607</v>
       </c>
       <c r="D2" t="n">
-        <v>233.1089316612286</v>
+        <v>776.4283852668561</v>
       </c>
       <c r="E2" t="n">
-        <v>233.1089316612286</v>
+        <v>390.6401326686119</v>
       </c>
       <c r="F2" t="n">
-        <v>226.1634309120251</v>
+        <v>383.6946319194084</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I2" t="n">
         <v>47.30902621369977</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.964238501591</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060706</v>
+        <v>397.076446806071</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927188</v>
+        <v>769.5640925927196</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
         <v>1624.048915811681</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633672</v>
+        <v>1978.679112633673</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054132</v>
+        <v>2243.673398054133</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
         <v>2292.21416780444</v>
       </c>
       <c r="S2" t="n">
-        <v>2209.771058549505</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="T2" t="n">
-        <v>1989.867492075854</v>
+        <v>2072.310601330789</v>
       </c>
       <c r="U2" t="n">
-        <v>1736.082517232356</v>
+        <v>1818.525626487291</v>
       </c>
       <c r="V2" t="n">
-        <v>1736.082517232356</v>
+        <v>1487.462739143721</v>
       </c>
       <c r="W2" t="n">
-        <v>1383.313861962242</v>
+        <v>1134.694083873607</v>
       </c>
       <c r="X2" t="n">
-        <v>1009.848103701162</v>
+        <v>1134.694083873607</v>
       </c>
       <c r="Y2" t="n">
-        <v>619.7087717253503</v>
+        <v>1134.694083873607</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>783.40913517655</v>
+        <v>814.5336845195542</v>
       </c>
       <c r="C3" t="n">
-        <v>608.956105895423</v>
+        <v>640.0806552384272</v>
       </c>
       <c r="D3" t="n">
-        <v>460.0216962341717</v>
+        <v>491.146245577176</v>
       </c>
       <c r="E3" t="n">
-        <v>300.7842412287162</v>
+        <v>331.9087905717205</v>
       </c>
       <c r="F3" t="n">
-        <v>154.2496832556012</v>
+        <v>185.3742325986054</v>
       </c>
       <c r="G3" t="n">
-        <v>154.2496832556012</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H3" t="n">
         <v>47.30902621369977</v>
@@ -4409,52 +4409,52 @@
         <v>47.30902621369977</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369977</v>
+        <v>108.2048630683009</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422594</v>
+        <v>338.9063907138127</v>
       </c>
       <c r="L3" t="n">
-        <v>501.770269185292</v>
+        <v>710.5174612568453</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874807</v>
+        <v>1196.149274459034</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030029</v>
+        <v>1710.341330101582</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.5637351199</v>
+        <v>2114.310927191454</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695909</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684988</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.60854888599</v>
+        <v>2315.433795847112</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926781</v>
+        <v>2315.433795847112</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087512</v>
+        <v>2115.930113007843</v>
       </c>
       <c r="U3" t="n">
-        <v>1856.625736127049</v>
+        <v>1887.750285470053</v>
       </c>
       <c r="V3" t="n">
-        <v>1621.473627895306</v>
+        <v>1652.59817723831</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.236271167105</v>
+        <v>1398.360820510109</v>
       </c>
       <c r="X3" t="n">
-        <v>1159.384770961572</v>
+        <v>1190.509320304576</v>
       </c>
       <c r="Y3" t="n">
-        <v>951.6244721966179</v>
+        <v>982.7490215396222</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546189</v>
+        <v>445.9028923267122</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422832</v>
+        <v>295.7862529143764</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598901</v>
+        <v>147.8731593319833</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619797</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="G4" t="n">
         <v>47.30902621369977</v>
@@ -4491,7 +4491,7 @@
         <v>47.30902621369977</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181593</v>
+        <v>88.80529410181595</v>
       </c>
       <c r="L4" t="n">
         <v>197.4326649365661</v>
@@ -4503,37 +4503,37 @@
         <v>449.7398382896741</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885929</v>
+        <v>551.384871688593</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546189</v>
+        <v>614.839075254619</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>617.7834030634515</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>617.7834030634515</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>610.837902314248</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>192.8740942124349</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>192.8740942124349</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2596.413607261435</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2596.413607261435</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2342.651821899526</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2011.588934555955</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1658.820279285841</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1658.820279285841</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>924.4350995402963</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2405.70291718488</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2074.64002984131</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2074.64002984131</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1701.17427158023</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1311.034939604418</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5023,55 +5023,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2762.028521254639</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3641.993171584094</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.3166934139181</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3805104860112</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V13" t="n">
-        <v>1502.164458322666</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.747288285705</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X13" t="n">
-        <v>984.7577373876879</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y13" t="n">
-        <v>763.9651582441578</v>
+        <v>263.2638710736755</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089266</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710052</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.852187039507</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5360,25 +5360,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.572266996683</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>926.8877787907957</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>637.470608753835</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>409.4810578558177</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551628</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037952</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423041</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888351</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>409.4810578558177</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>409.4810578558177</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867998</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.99303492678</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256235</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>681.9433364046623</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>513.0071534767554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>362.8905140644197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>362.8905140644197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>362.8905140644197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>195.1876774391386</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689057</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1420.14263648317</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>1130.72546644621</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>902.7359155481925</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.9433364046623</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>619.8559841413794</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C31" t="n">
-        <v>619.8559841413794</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>507.4794957532405</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1892.572196725409</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1700.886312552235</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1479.119697121761</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1190.016830247405</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>935.3323420415179</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413794</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.8559841413794</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871642</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318588</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839444</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839444</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,13 +6922,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,16 +6937,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888629</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172571</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
         <v>2602.177459903277</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7083461157117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>156.0693265625238</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>156.0693265625238</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894816</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>416.1091927888629</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
         <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.866738172571</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
         <v>2055.398642844495</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089261</v>
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,22 +7490,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>903.7324688633965</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>675.7429179653792</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>416.1091927888629</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.866738172571</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,25 +7727,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,25 +7821,25 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
         <v>1015.408799357142</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262995</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631319</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.8185614859229</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263795</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>160.3329896347532</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704397</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>60.6691768043425</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.3563597571384</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>288.0478149561043</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.0727796301213</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792283</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.9990175570132</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>91.2681168041043</v>
       </c>
       <c r="V13" t="n">
-        <v>177.6444164952708</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17.4384783663312</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>91.26811680410432</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17.43847836633105</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>46.12463835348402</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>37.36274951395484</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>25.79859598454544</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>36.44921121685004</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>281.0377198747962</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639774.5794201377</v>
+        <v>639774.5794201378</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639774.5794201378</v>
+        <v>639774.5794201377</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639774.5794201377</v>
+        <v>639774.5794201378</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>774309.4844296168</v>
+      </c>
+      <c r="G2" t="n">
         <v>774309.4844296171</v>
       </c>
-      <c r="F2" t="n">
-        <v>774309.4844296166</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="I2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="J2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="K2" t="n">
+        <v>774309.4844296171</v>
+      </c>
+      <c r="L2" t="n">
         <v>774309.4844296172</v>
       </c>
-      <c r="H2" t="n">
-        <v>774309.4844296168</v>
-      </c>
-      <c r="I2" t="n">
-        <v>774309.4844296166</v>
-      </c>
-      <c r="J2" t="n">
-        <v>774309.4844296166</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774309.4844296168</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="O2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="M2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>774309.4844296169</v>
-      </c>
-      <c r="O2" t="n">
-        <v>774309.4844296173</v>
-      </c>
       <c r="P2" t="n">
-        <v>774309.4844296167</v>
+        <v>774309.4844296171</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106473</v>
+        <v>493391.6844106474</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446979</v>
+        <v>91792.63957446969</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>154726.5356832158</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220096</v>
+        <v>21342.09858220093</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659811</v>
+        <v>226943.954765981</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.1061314012</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>3918.98030964713</v>
       </c>
       <c r="C6" t="n">
-        <v>424799.5020520657</v>
+        <v>424799.5020520658</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265354</v>
+        <v>516592.1416265352</v>
       </c>
       <c r="E6" t="n">
-        <v>-75214.12639475515</v>
+        <v>-74609.36698272292</v>
       </c>
       <c r="F6" t="n">
-        <v>652163.2875986513</v>
+        <v>652768.0470106836</v>
       </c>
       <c r="G6" t="n">
-        <v>652163.2875986518</v>
+        <v>652768.0470106838</v>
       </c>
       <c r="H6" t="n">
-        <v>652163.2875986515</v>
+        <v>652768.0470106838</v>
       </c>
       <c r="I6" t="n">
-        <v>652163.2875986513</v>
+        <v>652768.047010684</v>
       </c>
       <c r="J6" t="n">
-        <v>497436.7519154354</v>
+        <v>498041.5113274679</v>
       </c>
       <c r="K6" t="n">
-        <v>630821.1890164505</v>
+        <v>631425.9484284829</v>
       </c>
       <c r="L6" t="n">
-        <v>652163.2875986515</v>
+        <v>652768.0470106839</v>
       </c>
       <c r="M6" t="n">
-        <v>522520.9727597068</v>
+        <v>523125.7321717392</v>
       </c>
       <c r="N6" t="n">
-        <v>652163.2875986516</v>
+        <v>652768.0470106839</v>
       </c>
       <c r="O6" t="n">
-        <v>652163.287598652</v>
+        <v>652768.0470106837</v>
       </c>
       <c r="P6" t="n">
-        <v>652163.2875986514</v>
+        <v>652768.0470106838</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671247</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353746</v>
+        <v>71.38374637353741</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671247</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330857</v>
+        <v>82.92444508330844</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671247</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330857</v>
+        <v>82.92444508330844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.62590885137678e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671247</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330857</v>
+        <v>82.92444508330844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>81.04939020681093</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.33635975407141</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356733</v>
+        <v>66.70865780356732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.726994491510482</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>138.3569159715535</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>45.86255623583058</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479622</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>14.38951497671152</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>129.1659864645634</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.3051017946059</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>17.17085798809245</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752656</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452636</v>
+        <v>47.48116877452637</v>
       </c>
       <c r="J2" t="n">
         <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015733</v>
+        <v>156.6638408015734</v>
       </c>
       <c r="L2" t="n">
         <v>194.3553476787775</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589793</v>
+        <v>216.2577725589794</v>
       </c>
       <c r="N2" t="n">
         <v>219.757049409524</v>
@@ -31068,22 +31068,22 @@
         <v>207.510350181155</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579886</v>
+        <v>177.1052829579887</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940643</v>
+        <v>77.36434648940644</v>
       </c>
       <c r="S2" t="n">
         <v>28.06503166978846</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216628</v>
+        <v>5.391318755216629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380467</v>
+        <v>0.09852781277380468</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,10 +31120,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540492</v>
+        <v>0.6589628421540493</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014107</v>
+        <v>6.364193765014108</v>
       </c>
       <c r="I3" t="n">
         <v>22.68797504784775</v>
@@ -31135,7 +31135,7 @@
         <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.07875219665</v>
+        <v>143.0787521966501</v>
       </c>
       <c r="M3" t="n">
         <v>166.9661552247343</v>
@@ -31150,7 +31150,7 @@
         <v>125.8330009723816</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338355</v>
+        <v>84.11602876338357</v>
       </c>
       <c r="R3" t="n">
         <v>40.91349997163476</v>
@@ -31162,7 +31162,7 @@
         <v>2.656082683945487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276641</v>
+        <v>0.04335281856276642</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654165</v>
+        <v>0.5524523108654166</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296707</v>
+        <v>4.911803272967071</v>
       </c>
       <c r="I4" t="n">
         <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818494</v>
+        <v>39.05837837818495</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350911</v>
+        <v>64.18491393509112</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448202</v>
+        <v>82.13459174448204</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502159</v>
+        <v>86.5994108750216</v>
       </c>
       <c r="N4" t="n">
-        <v>84.5402704436142</v>
+        <v>84.54027044361422</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395908</v>
+        <v>78.0866229939591</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230453</v>
+        <v>66.81659585230454</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437592</v>
+        <v>46.26034759437593</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400317</v>
+        <v>24.84026481400318</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263663</v>
+        <v>9.627737090263665</v>
       </c>
       <c r="T4" t="n">
         <v>2.36047805551587</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084093</v>
+        <v>0.03013376241084094</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.5810225130214</v>
+        <v>92.58102251302141</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277575</v>
+        <v>260.7194023277576</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592406</v>
+        <v>376.2501472592407</v>
       </c>
       <c r="M2" t="n">
-        <v>435.425072824539</v>
+        <v>435.4250728245391</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249172</v>
+        <v>427.6909102249173</v>
       </c>
       <c r="O2" t="n">
         <v>358.2123200222136</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777889</v>
       </c>
       <c r="K3" t="n">
-        <v>83.6870428571309</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
         <v>375.364717720235</v>
@@ -34792,13 +34792,13 @@
         <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705776</v>
+        <v>408.0500980705777</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979885</v>
+        <v>253.6771550439742</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132111</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920825</v>
+        <v>41.91542210920827</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047982</v>
@@ -34874,7 +34874,7 @@
         <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719802</v>
+        <v>64.09515511719803</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.0949758541251</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707635</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>629.6597897216824</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>459.4311630237141</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q17" t="n">
-        <v>390.1506645608579</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>840.3496503690155</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>455.8670844338408</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>89.23202080014755</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257257</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>323.7860185257257</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7860185257257</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
